--- a/data_excel/70.xlsx
+++ b/data_excel/70.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -105,11 +105,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>snv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pv</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +139,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -156,13 +163,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -468,7 +503,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -587,7 +622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -598,15 +633,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
